--- a/Testing Documentation/QA Test Case Template.xlsx
+++ b/Testing Documentation/QA Test Case Template.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>Project Name</t>
   </si>
@@ -153,9 +156,6 @@
     <t>Unsuccessful login</t>
   </si>
   <si>
-    <t>Test_FB_002</t>
-  </si>
-  <si>
     <t>TC_FB_Login_003</t>
   </si>
   <si>
@@ -206,15 +206,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -225,7 +226,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -241,7 +242,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -255,47 +262,48 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -485,36 +493,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.25"/>
-    <col customWidth="1" min="2" max="2" width="30.38"/>
-    <col customWidth="1" min="3" max="3" width="17.13"/>
-    <col customWidth="1" min="4" max="4" width="28.5"/>
-    <col customWidth="1" min="5" max="5" width="27.0"/>
-    <col customWidth="1" min="6" max="6" width="16.88"/>
-    <col customWidth="1" min="7" max="7" width="19.13"/>
-    <col customWidth="1" min="8" max="8" width="16.75"/>
-    <col customWidth="1" min="9" max="9" width="13.13"/>
-    <col customWidth="1" min="10" max="10" width="10.88"/>
-    <col customWidth="1" min="11" max="11" width="13.75"/>
-    <col customWidth="1" min="12" max="12" width="10.38"/>
-    <col customWidth="1" min="13" max="13" width="11.88"/>
-    <col customWidth="1" min="14" max="14" width="9.0"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +547,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -554,7 +567,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -574,7 +587,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -594,7 +607,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -614,7 +627,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -634,7 +647,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -650,7 +663,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -694,7 +707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -732,7 +745,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -770,30 +783,30 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>42</v>
@@ -808,7 +821,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -816,28 +829,28 @@
         <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>35</v>
@@ -846,7 +859,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -862,7 +875,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -878,7 +891,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -894,7 +907,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -910,7 +923,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -926,7 +939,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -942,7 +955,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -958,7 +971,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -974,7 +987,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -990,7 +1003,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1006,7 +1019,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1022,7 +1035,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1038,7 +1051,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1054,7 +1067,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1070,7 +1083,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1086,7 +1099,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1102,7 +1115,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1118,7 +1131,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1134,7 +1147,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1150,7 +1163,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1166,7 +1179,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1182,7 +1195,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1198,7 +1211,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1214,7 +1227,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1230,7 +1243,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1246,7 +1259,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1262,7 +1275,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1278,7 +1291,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1294,7 +1307,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1310,7 +1323,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1326,7 +1339,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1342,7 +1355,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1358,7 +1371,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1374,7 +1387,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1390,7 +1403,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1406,7 +1419,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1422,7 +1435,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1438,7 +1451,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1454,7 +1467,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1470,7 +1483,7 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1486,7 +1499,7 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1502,7 +1515,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1518,7 +1531,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1534,7 +1547,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1550,7 +1563,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1566,7 +1579,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1582,7 +1595,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1598,7 +1611,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1614,7 +1627,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1630,7 +1643,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1646,7 +1659,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1662,7 +1675,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1678,7 +1691,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1694,7 +1707,7 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1710,7 +1723,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1726,7 +1739,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1742,7 +1755,7 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1758,7 +1771,7 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1774,7 +1787,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1790,7 +1803,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1806,7 +1819,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1822,7 +1835,7 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1838,7 +1851,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1854,7 +1867,7 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1870,7 +1883,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1886,7 +1899,7 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1902,7 +1915,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1918,7 +1931,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1934,7 +1947,7 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1950,7 +1963,7 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1966,7 +1979,7 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1982,7 +1995,7 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1998,7 +2011,7 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2014,7 +2027,7 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2030,7 +2043,7 @@
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2046,7 +2059,7 @@
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2062,7 +2075,7 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2078,7 +2091,7 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2094,7 +2107,7 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2110,7 +2123,7 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2126,7 +2139,7 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2142,7 +2155,7 @@
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2158,7 +2171,7 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2174,7 +2187,7 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2190,7 +2203,7 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2206,7 +2219,7 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2222,7 +2235,7 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2238,7 +2251,7 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2254,7 +2267,7 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2270,7 +2283,7 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2286,7 +2299,7 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2302,7 +2315,7 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2318,7 +2331,7 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2334,7 +2347,7 @@
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2350,7 +2363,7 @@
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2366,7 +2379,7 @@
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2382,7 +2395,7 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2398,7 +2411,7 @@
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2414,7 +2427,7 @@
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2430,7 +2443,7 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2446,7 +2459,7 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2462,7 +2475,7 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2478,7 +2491,7 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2494,7 +2507,7 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2510,7 +2523,7 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2526,7 +2539,7 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2542,7 +2555,7 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2558,7 +2571,7 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2574,7 +2587,7 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2590,7 +2603,7 @@
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2606,7 +2619,7 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2622,7 +2635,7 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2638,7 +2651,7 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2654,7 +2667,7 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2670,7 +2683,7 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2686,7 +2699,7 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2702,7 +2715,7 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2718,7 +2731,7 @@
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2734,7 +2747,7 @@
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2750,7 +2763,7 @@
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2766,7 +2779,7 @@
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2782,7 +2795,7 @@
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2798,7 +2811,7 @@
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2814,7 +2827,7 @@
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2830,7 +2843,7 @@
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2846,7 +2859,7 @@
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2862,7 +2875,7 @@
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2878,7 +2891,7 @@
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2894,7 +2907,7 @@
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2910,7 +2923,7 @@
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2926,7 +2939,7 @@
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2942,7 +2955,7 @@
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2958,7 +2971,7 @@
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2974,7 +2987,7 @@
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2990,7 +3003,7 @@
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3006,7 +3019,7 @@
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3022,7 +3035,7 @@
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3038,7 +3051,7 @@
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3054,7 +3067,7 @@
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3070,7 +3083,7 @@
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3086,7 +3099,7 @@
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3102,7 +3115,7 @@
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3118,7 +3131,7 @@
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3134,7 +3147,7 @@
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3150,7 +3163,7 @@
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3166,7 +3179,7 @@
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3182,7 +3195,7 @@
       <c r="M158" s="3"/>
       <c r="N158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3198,7 +3211,7 @@
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3214,7 +3227,7 @@
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3230,7 +3243,7 @@
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3246,7 +3259,7 @@
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3262,7 +3275,7 @@
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -3278,7 +3291,7 @@
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -3294,7 +3307,7 @@
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3310,7 +3323,7 @@
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -3326,7 +3339,7 @@
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -3342,7 +3355,7 @@
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -3358,7 +3371,7 @@
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -3374,7 +3387,7 @@
       <c r="M170" s="3"/>
       <c r="N170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -3390,7 +3403,7 @@
       <c r="M171" s="3"/>
       <c r="N171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -3406,7 +3419,7 @@
       <c r="M172" s="3"/>
       <c r="N172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -3422,7 +3435,7 @@
       <c r="M173" s="3"/>
       <c r="N173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3438,7 +3451,7 @@
       <c r="M174" s="3"/>
       <c r="N174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -3454,7 +3467,7 @@
       <c r="M175" s="3"/>
       <c r="N175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -3470,7 +3483,7 @@
       <c r="M176" s="3"/>
       <c r="N176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -3486,7 +3499,7 @@
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -3502,7 +3515,7 @@
       <c r="M178" s="3"/>
       <c r="N178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -3518,7 +3531,7 @@
       <c r="M179" s="3"/>
       <c r="N179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -3534,7 +3547,7 @@
       <c r="M180" s="3"/>
       <c r="N180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -3550,7 +3563,7 @@
       <c r="M181" s="3"/>
       <c r="N181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -3566,7 +3579,7 @@
       <c r="M182" s="3"/>
       <c r="N182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -3582,7 +3595,7 @@
       <c r="M183" s="3"/>
       <c r="N183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -3598,7 +3611,7 @@
       <c r="M184" s="3"/>
       <c r="N184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -3614,7 +3627,7 @@
       <c r="M185" s="3"/>
       <c r="N185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -3630,7 +3643,7 @@
       <c r="M186" s="3"/>
       <c r="N186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -3646,7 +3659,7 @@
       <c r="M187" s="3"/>
       <c r="N187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -3662,7 +3675,7 @@
       <c r="M188" s="3"/>
       <c r="N188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -3678,7 +3691,7 @@
       <c r="M189" s="3"/>
       <c r="N189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -3694,7 +3707,7 @@
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -3710,7 +3723,7 @@
       <c r="M191" s="3"/>
       <c r="N191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -3726,7 +3739,7 @@
       <c r="M192" s="3"/>
       <c r="N192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -3742,7 +3755,7 @@
       <c r="M193" s="3"/>
       <c r="N193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -3758,7 +3771,7 @@
       <c r="M194" s="3"/>
       <c r="N194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -3774,7 +3787,7 @@
       <c r="M195" s="3"/>
       <c r="N195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -3790,7 +3803,7 @@
       <c r="M196" s="3"/>
       <c r="N196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -3806,7 +3819,7 @@
       <c r="M197" s="3"/>
       <c r="N197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -3822,7 +3835,7 @@
       <c r="M198" s="3"/>
       <c r="N198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -3838,7 +3851,7 @@
       <c r="M199" s="3"/>
       <c r="N199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -3854,7 +3867,7 @@
       <c r="M200" s="3"/>
       <c r="N200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -3870,7 +3883,7 @@
       <c r="M201" s="3"/>
       <c r="N201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -3886,7 +3899,7 @@
       <c r="M202" s="3"/>
       <c r="N202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -3902,7 +3915,7 @@
       <c r="M203" s="3"/>
       <c r="N203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -3918,7 +3931,7 @@
       <c r="M204" s="3"/>
       <c r="N204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3934,7 +3947,7 @@
       <c r="M205" s="3"/>
       <c r="N205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3950,7 +3963,7 @@
       <c r="M206" s="3"/>
       <c r="N206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3966,7 +3979,7 @@
       <c r="M207" s="3"/>
       <c r="N207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3982,7 +3995,7 @@
       <c r="M208" s="3"/>
       <c r="N208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3998,7 +4011,7 @@
       <c r="M209" s="3"/>
       <c r="N209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -4014,7 +4027,7 @@
       <c r="M210" s="3"/>
       <c r="N210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -4030,7 +4043,7 @@
       <c r="M211" s="3"/>
       <c r="N211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -4046,7 +4059,7 @@
       <c r="M212" s="3"/>
       <c r="N212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -4062,7 +4075,7 @@
       <c r="M213" s="3"/>
       <c r="N213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -4078,7 +4091,7 @@
       <c r="M214" s="3"/>
       <c r="N214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -4094,7 +4107,7 @@
       <c r="M215" s="3"/>
       <c r="N215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -4110,7 +4123,7 @@
       <c r="M216" s="3"/>
       <c r="N216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -4126,7 +4139,7 @@
       <c r="M217" s="3"/>
       <c r="N217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -4142,7 +4155,7 @@
       <c r="M218" s="3"/>
       <c r="N218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -4158,7 +4171,7 @@
       <c r="M219" s="3"/>
       <c r="N219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -4174,7 +4187,7 @@
       <c r="M220" s="3"/>
       <c r="N220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -4190,7 +4203,7 @@
       <c r="M221" s="3"/>
       <c r="N221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -4206,7 +4219,7 @@
       <c r="M222" s="3"/>
       <c r="N222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -4222,7 +4235,7 @@
       <c r="M223" s="3"/>
       <c r="N223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -4238,7 +4251,7 @@
       <c r="M224" s="3"/>
       <c r="N224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -4254,7 +4267,7 @@
       <c r="M225" s="3"/>
       <c r="N225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -4270,7 +4283,7 @@
       <c r="M226" s="3"/>
       <c r="N226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -4286,7 +4299,7 @@
       <c r="M227" s="3"/>
       <c r="N227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -4302,7 +4315,7 @@
       <c r="M228" s="3"/>
       <c r="N228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -4318,7 +4331,7 @@
       <c r="M229" s="3"/>
       <c r="N229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -4334,7 +4347,7 @@
       <c r="M230" s="3"/>
       <c r="N230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -4350,7 +4363,7 @@
       <c r="M231" s="3"/>
       <c r="N231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -4366,7 +4379,7 @@
       <c r="M232" s="3"/>
       <c r="N232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -4382,7 +4395,7 @@
       <c r="M233" s="3"/>
       <c r="N233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -4398,7 +4411,7 @@
       <c r="M234" s="3"/>
       <c r="N234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -4414,7 +4427,7 @@
       <c r="M235" s="3"/>
       <c r="N235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -4430,7 +4443,7 @@
       <c r="M236" s="3"/>
       <c r="N236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -4446,7 +4459,7 @@
       <c r="M237" s="3"/>
       <c r="N237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -4462,7 +4475,7 @@
       <c r="M238" s="3"/>
       <c r="N238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -4478,7 +4491,7 @@
       <c r="M239" s="3"/>
       <c r="N239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -4494,7 +4507,7 @@
       <c r="M240" s="3"/>
       <c r="N240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -4510,7 +4523,7 @@
       <c r="M241" s="3"/>
       <c r="N241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -4526,7 +4539,7 @@
       <c r="M242" s="3"/>
       <c r="N242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -4542,7 +4555,7 @@
       <c r="M243" s="3"/>
       <c r="N243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -4558,7 +4571,7 @@
       <c r="M244" s="3"/>
       <c r="N244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -4574,7 +4587,7 @@
       <c r="M245" s="3"/>
       <c r="N245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -4590,7 +4603,7 @@
       <c r="M246" s="3"/>
       <c r="N246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -4606,7 +4619,7 @@
       <c r="M247" s="3"/>
       <c r="N247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -4622,7 +4635,7 @@
       <c r="M248" s="3"/>
       <c r="N248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -4638,7 +4651,7 @@
       <c r="M249" s="3"/>
       <c r="N249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -4654,7 +4667,7 @@
       <c r="M250" s="3"/>
       <c r="N250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -4670,7 +4683,7 @@
       <c r="M251" s="3"/>
       <c r="N251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -4686,7 +4699,7 @@
       <c r="M252" s="3"/>
       <c r="N252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -4702,7 +4715,7 @@
       <c r="M253" s="3"/>
       <c r="N253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -4718,7 +4731,7 @@
       <c r="M254" s="3"/>
       <c r="N254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -4734,7 +4747,7 @@
       <c r="M255" s="3"/>
       <c r="N255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -4750,7 +4763,7 @@
       <c r="M256" s="3"/>
       <c r="N256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -4766,7 +4779,7 @@
       <c r="M257" s="3"/>
       <c r="N257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -4782,7 +4795,7 @@
       <c r="M258" s="3"/>
       <c r="N258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -4798,7 +4811,7 @@
       <c r="M259" s="3"/>
       <c r="N259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -4814,7 +4827,7 @@
       <c r="M260" s="3"/>
       <c r="N260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -4830,7 +4843,7 @@
       <c r="M261" s="3"/>
       <c r="N261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -4846,7 +4859,7 @@
       <c r="M262" s="3"/>
       <c r="N262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -4862,7 +4875,7 @@
       <c r="M263" s="3"/>
       <c r="N263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -4878,7 +4891,7 @@
       <c r="M264" s="3"/>
       <c r="N264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -4894,7 +4907,7 @@
       <c r="M265" s="3"/>
       <c r="N265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -4910,7 +4923,7 @@
       <c r="M266" s="3"/>
       <c r="N266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -4926,7 +4939,7 @@
       <c r="M267" s="3"/>
       <c r="N267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -4942,7 +4955,7 @@
       <c r="M268" s="3"/>
       <c r="N268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -4958,7 +4971,7 @@
       <c r="M269" s="3"/>
       <c r="N269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -4974,7 +4987,7 @@
       <c r="M270" s="3"/>
       <c r="N270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -4990,7 +5003,7 @@
       <c r="M271" s="3"/>
       <c r="N271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -5006,7 +5019,7 @@
       <c r="M272" s="3"/>
       <c r="N272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -5022,7 +5035,7 @@
       <c r="M273" s="3"/>
       <c r="N273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -5038,7 +5051,7 @@
       <c r="M274" s="3"/>
       <c r="N274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -5054,7 +5067,7 @@
       <c r="M275" s="3"/>
       <c r="N275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -5070,7 +5083,7 @@
       <c r="M276" s="3"/>
       <c r="N276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -5086,7 +5099,7 @@
       <c r="M277" s="3"/>
       <c r="N277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -5102,7 +5115,7 @@
       <c r="M278" s="3"/>
       <c r="N278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -5118,7 +5131,7 @@
       <c r="M279" s="3"/>
       <c r="N279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -5134,7 +5147,7 @@
       <c r="M280" s="3"/>
       <c r="N280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -5150,7 +5163,7 @@
       <c r="M281" s="3"/>
       <c r="N281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -5166,7 +5179,7 @@
       <c r="M282" s="3"/>
       <c r="N282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -5182,7 +5195,7 @@
       <c r="M283" s="3"/>
       <c r="N283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -5198,7 +5211,7 @@
       <c r="M284" s="3"/>
       <c r="N284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -5214,7 +5227,7 @@
       <c r="M285" s="3"/>
       <c r="N285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -5230,7 +5243,7 @@
       <c r="M286" s="3"/>
       <c r="N286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -5246,7 +5259,7 @@
       <c r="M287" s="3"/>
       <c r="N287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -5262,7 +5275,7 @@
       <c r="M288" s="3"/>
       <c r="N288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -5278,7 +5291,7 @@
       <c r="M289" s="3"/>
       <c r="N289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -5294,7 +5307,7 @@
       <c r="M290" s="3"/>
       <c r="N290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -5310,7 +5323,7 @@
       <c r="M291" s="3"/>
       <c r="N291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -5326,7 +5339,7 @@
       <c r="M292" s="3"/>
       <c r="N292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -5342,7 +5355,7 @@
       <c r="M293" s="3"/>
       <c r="N293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -5358,7 +5371,7 @@
       <c r="M294" s="3"/>
       <c r="N294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -5374,7 +5387,7 @@
       <c r="M295" s="3"/>
       <c r="N295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -5390,7 +5403,7 @@
       <c r="M296" s="3"/>
       <c r="N296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -5406,7 +5419,7 @@
       <c r="M297" s="3"/>
       <c r="N297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -5422,7 +5435,7 @@
       <c r="M298" s="3"/>
       <c r="N298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -5438,7 +5451,7 @@
       <c r="M299" s="3"/>
       <c r="N299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -5454,7 +5467,7 @@
       <c r="M300" s="3"/>
       <c r="N300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -5470,7 +5483,7 @@
       <c r="M301" s="3"/>
       <c r="N301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -5486,7 +5499,7 @@
       <c r="M302" s="3"/>
       <c r="N302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -5502,7 +5515,7 @@
       <c r="M303" s="3"/>
       <c r="N303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -5518,7 +5531,7 @@
       <c r="M304" s="3"/>
       <c r="N304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -5534,7 +5547,7 @@
       <c r="M305" s="3"/>
       <c r="N305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -5550,7 +5563,7 @@
       <c r="M306" s="3"/>
       <c r="N306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -5566,7 +5579,7 @@
       <c r="M307" s="3"/>
       <c r="N307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -5582,7 +5595,7 @@
       <c r="M308" s="3"/>
       <c r="N308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -5598,7 +5611,7 @@
       <c r="M309" s="3"/>
       <c r="N309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -5614,7 +5627,7 @@
       <c r="M310" s="3"/>
       <c r="N310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -5630,7 +5643,7 @@
       <c r="M311" s="3"/>
       <c r="N311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -5646,7 +5659,7 @@
       <c r="M312" s="3"/>
       <c r="N312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -5662,7 +5675,7 @@
       <c r="M313" s="3"/>
       <c r="N313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -5678,7 +5691,7 @@
       <c r="M314" s="3"/>
       <c r="N314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -5694,7 +5707,7 @@
       <c r="M315" s="3"/>
       <c r="N315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -5710,7 +5723,7 @@
       <c r="M316" s="3"/>
       <c r="N316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -5726,7 +5739,7 @@
       <c r="M317" s="3"/>
       <c r="N317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -5742,7 +5755,7 @@
       <c r="M318" s="3"/>
       <c r="N318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -5758,7 +5771,7 @@
       <c r="M319" s="3"/>
       <c r="N319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -5774,7 +5787,7 @@
       <c r="M320" s="3"/>
       <c r="N320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -5790,7 +5803,7 @@
       <c r="M321" s="3"/>
       <c r="N321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -5806,7 +5819,7 @@
       <c r="M322" s="3"/>
       <c r="N322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -5822,7 +5835,7 @@
       <c r="M323" s="3"/>
       <c r="N323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -5838,7 +5851,7 @@
       <c r="M324" s="3"/>
       <c r="N324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -5854,7 +5867,7 @@
       <c r="M325" s="3"/>
       <c r="N325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -5870,7 +5883,7 @@
       <c r="M326" s="3"/>
       <c r="N326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -5886,7 +5899,7 @@
       <c r="M327" s="3"/>
       <c r="N327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -5902,7 +5915,7 @@
       <c r="M328" s="3"/>
       <c r="N328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -5918,7 +5931,7 @@
       <c r="M329" s="3"/>
       <c r="N329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -5934,7 +5947,7 @@
       <c r="M330" s="3"/>
       <c r="N330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -5950,7 +5963,7 @@
       <c r="M331" s="3"/>
       <c r="N331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -5966,7 +5979,7 @@
       <c r="M332" s="3"/>
       <c r="N332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -5982,7 +5995,7 @@
       <c r="M333" s="3"/>
       <c r="N333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -5998,7 +6011,7 @@
       <c r="M334" s="3"/>
       <c r="N334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -6014,7 +6027,7 @@
       <c r="M335" s="3"/>
       <c r="N335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -6030,7 +6043,7 @@
       <c r="M336" s="3"/>
       <c r="N336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -6046,7 +6059,7 @@
       <c r="M337" s="3"/>
       <c r="N337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -6062,7 +6075,7 @@
       <c r="M338" s="3"/>
       <c r="N338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -6078,7 +6091,7 @@
       <c r="M339" s="3"/>
       <c r="N339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -6094,7 +6107,7 @@
       <c r="M340" s="3"/>
       <c r="N340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -6110,7 +6123,7 @@
       <c r="M341" s="3"/>
       <c r="N341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -6126,7 +6139,7 @@
       <c r="M342" s="3"/>
       <c r="N342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -6142,7 +6155,7 @@
       <c r="M343" s="3"/>
       <c r="N343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -6158,7 +6171,7 @@
       <c r="M344" s="3"/>
       <c r="N344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -6174,7 +6187,7 @@
       <c r="M345" s="3"/>
       <c r="N345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -6190,7 +6203,7 @@
       <c r="M346" s="3"/>
       <c r="N346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -6206,7 +6219,7 @@
       <c r="M347" s="3"/>
       <c r="N347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -6222,7 +6235,7 @@
       <c r="M348" s="3"/>
       <c r="N348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -6238,7 +6251,7 @@
       <c r="M349" s="3"/>
       <c r="N349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -6254,7 +6267,7 @@
       <c r="M350" s="3"/>
       <c r="N350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -6270,7 +6283,7 @@
       <c r="M351" s="3"/>
       <c r="N351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -6286,7 +6299,7 @@
       <c r="M352" s="3"/>
       <c r="N352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -6302,7 +6315,7 @@
       <c r="M353" s="3"/>
       <c r="N353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -6318,7 +6331,7 @@
       <c r="M354" s="3"/>
       <c r="N354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -6334,7 +6347,7 @@
       <c r="M355" s="3"/>
       <c r="N355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -6350,7 +6363,7 @@
       <c r="M356" s="3"/>
       <c r="N356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -6366,7 +6379,7 @@
       <c r="M357" s="3"/>
       <c r="N357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -6382,7 +6395,7 @@
       <c r="M358" s="3"/>
       <c r="N358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -6398,7 +6411,7 @@
       <c r="M359" s="3"/>
       <c r="N359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -6414,7 +6427,7 @@
       <c r="M360" s="3"/>
       <c r="N360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -6430,7 +6443,7 @@
       <c r="M361" s="3"/>
       <c r="N361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -6446,7 +6459,7 @@
       <c r="M362" s="3"/>
       <c r="N362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -6462,7 +6475,7 @@
       <c r="M363" s="3"/>
       <c r="N363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -6478,7 +6491,7 @@
       <c r="M364" s="3"/>
       <c r="N364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -6494,7 +6507,7 @@
       <c r="M365" s="3"/>
       <c r="N365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -6510,7 +6523,7 @@
       <c r="M366" s="3"/>
       <c r="N366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -6526,7 +6539,7 @@
       <c r="M367" s="3"/>
       <c r="N367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -6542,7 +6555,7 @@
       <c r="M368" s="3"/>
       <c r="N368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -6558,7 +6571,7 @@
       <c r="M369" s="3"/>
       <c r="N369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -6574,7 +6587,7 @@
       <c r="M370" s="3"/>
       <c r="N370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -6590,7 +6603,7 @@
       <c r="M371" s="3"/>
       <c r="N371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -6606,7 +6619,7 @@
       <c r="M372" s="3"/>
       <c r="N372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -6622,7 +6635,7 @@
       <c r="M373" s="3"/>
       <c r="N373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -6638,7 +6651,7 @@
       <c r="M374" s="3"/>
       <c r="N374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -6654,7 +6667,7 @@
       <c r="M375" s="3"/>
       <c r="N375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -6670,7 +6683,7 @@
       <c r="M376" s="3"/>
       <c r="N376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -6686,7 +6699,7 @@
       <c r="M377" s="3"/>
       <c r="N377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -6702,7 +6715,7 @@
       <c r="M378" s="3"/>
       <c r="N378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -6718,7 +6731,7 @@
       <c r="M379" s="3"/>
       <c r="N379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -6734,7 +6747,7 @@
       <c r="M380" s="3"/>
       <c r="N380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -6750,7 +6763,7 @@
       <c r="M381" s="3"/>
       <c r="N381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -6766,7 +6779,7 @@
       <c r="M382" s="3"/>
       <c r="N382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -6782,7 +6795,7 @@
       <c r="M383" s="3"/>
       <c r="N383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -6798,7 +6811,7 @@
       <c r="M384" s="3"/>
       <c r="N384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -6814,7 +6827,7 @@
       <c r="M385" s="3"/>
       <c r="N385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -6830,7 +6843,7 @@
       <c r="M386" s="3"/>
       <c r="N386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -6846,7 +6859,7 @@
       <c r="M387" s="3"/>
       <c r="N387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -6862,7 +6875,7 @@
       <c r="M388" s="3"/>
       <c r="N388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -6878,7 +6891,7 @@
       <c r="M389" s="3"/>
       <c r="N389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -6894,7 +6907,7 @@
       <c r="M390" s="3"/>
       <c r="N390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -6910,7 +6923,7 @@
       <c r="M391" s="3"/>
       <c r="N391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -6926,7 +6939,7 @@
       <c r="M392" s="3"/>
       <c r="N392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -6942,7 +6955,7 @@
       <c r="M393" s="3"/>
       <c r="N393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -6958,7 +6971,7 @@
       <c r="M394" s="3"/>
       <c r="N394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -6974,7 +6987,7 @@
       <c r="M395" s="3"/>
       <c r="N395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -6990,7 +7003,7 @@
       <c r="M396" s="3"/>
       <c r="N396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -7006,7 +7019,7 @@
       <c r="M397" s="3"/>
       <c r="N397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -7022,7 +7035,7 @@
       <c r="M398" s="3"/>
       <c r="N398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -7038,7 +7051,7 @@
       <c r="M399" s="3"/>
       <c r="N399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -7054,7 +7067,7 @@
       <c r="M400" s="3"/>
       <c r="N400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -7070,7 +7083,7 @@
       <c r="M401" s="3"/>
       <c r="N401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -7086,7 +7099,7 @@
       <c r="M402" s="3"/>
       <c r="N402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -7102,7 +7115,7 @@
       <c r="M403" s="3"/>
       <c r="N403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -7118,7 +7131,7 @@
       <c r="M404" s="3"/>
       <c r="N404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -7134,7 +7147,7 @@
       <c r="M405" s="3"/>
       <c r="N405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -7150,7 +7163,7 @@
       <c r="M406" s="3"/>
       <c r="N406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -7166,7 +7179,7 @@
       <c r="M407" s="3"/>
       <c r="N407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -7182,7 +7195,7 @@
       <c r="M408" s="3"/>
       <c r="N408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -7198,7 +7211,7 @@
       <c r="M409" s="3"/>
       <c r="N409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -7214,7 +7227,7 @@
       <c r="M410" s="3"/>
       <c r="N410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -7230,7 +7243,7 @@
       <c r="M411" s="3"/>
       <c r="N411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -7246,7 +7259,7 @@
       <c r="M412" s="3"/>
       <c r="N412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -7262,7 +7275,7 @@
       <c r="M413" s="3"/>
       <c r="N413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -7278,7 +7291,7 @@
       <c r="M414" s="3"/>
       <c r="N414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -7294,7 +7307,7 @@
       <c r="M415" s="3"/>
       <c r="N415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -7310,7 +7323,7 @@
       <c r="M416" s="3"/>
       <c r="N416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -7326,7 +7339,7 @@
       <c r="M417" s="3"/>
       <c r="N417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -7342,7 +7355,7 @@
       <c r="M418" s="3"/>
       <c r="N418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -7358,7 +7371,7 @@
       <c r="M419" s="3"/>
       <c r="N419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -7374,7 +7387,7 @@
       <c r="M420" s="3"/>
       <c r="N420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -7390,7 +7403,7 @@
       <c r="M421" s="3"/>
       <c r="N421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -7406,7 +7419,7 @@
       <c r="M422" s="3"/>
       <c r="N422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -7422,7 +7435,7 @@
       <c r="M423" s="3"/>
       <c r="N423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -7438,7 +7451,7 @@
       <c r="M424" s="3"/>
       <c r="N424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -7454,7 +7467,7 @@
       <c r="M425" s="3"/>
       <c r="N425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -7470,7 +7483,7 @@
       <c r="M426" s="3"/>
       <c r="N426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -7486,7 +7499,7 @@
       <c r="M427" s="3"/>
       <c r="N427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -7502,7 +7515,7 @@
       <c r="M428" s="3"/>
       <c r="N428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -7518,7 +7531,7 @@
       <c r="M429" s="3"/>
       <c r="N429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -7534,7 +7547,7 @@
       <c r="M430" s="3"/>
       <c r="N430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -7550,7 +7563,7 @@
       <c r="M431" s="3"/>
       <c r="N431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -7566,7 +7579,7 @@
       <c r="M432" s="3"/>
       <c r="N432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -7582,7 +7595,7 @@
       <c r="M433" s="3"/>
       <c r="N433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -7598,7 +7611,7 @@
       <c r="M434" s="3"/>
       <c r="N434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -7614,7 +7627,7 @@
       <c r="M435" s="3"/>
       <c r="N435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -7630,7 +7643,7 @@
       <c r="M436" s="3"/>
       <c r="N436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -7646,7 +7659,7 @@
       <c r="M437" s="3"/>
       <c r="N437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -7662,7 +7675,7 @@
       <c r="M438" s="3"/>
       <c r="N438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -7678,7 +7691,7 @@
       <c r="M439" s="3"/>
       <c r="N439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -7694,7 +7707,7 @@
       <c r="M440" s="3"/>
       <c r="N440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -7710,7 +7723,7 @@
       <c r="M441" s="3"/>
       <c r="N441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -7726,7 +7739,7 @@
       <c r="M442" s="3"/>
       <c r="N442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -7742,7 +7755,7 @@
       <c r="M443" s="3"/>
       <c r="N443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -7758,7 +7771,7 @@
       <c r="M444" s="3"/>
       <c r="N444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -7774,7 +7787,7 @@
       <c r="M445" s="3"/>
       <c r="N445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -7790,7 +7803,7 @@
       <c r="M446" s="3"/>
       <c r="N446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -7806,7 +7819,7 @@
       <c r="M447" s="3"/>
       <c r="N447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -7822,7 +7835,7 @@
       <c r="M448" s="3"/>
       <c r="N448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -7838,7 +7851,7 @@
       <c r="M449" s="3"/>
       <c r="N449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -7854,7 +7867,7 @@
       <c r="M450" s="3"/>
       <c r="N450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -7870,7 +7883,7 @@
       <c r="M451" s="3"/>
       <c r="N451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -7886,7 +7899,7 @@
       <c r="M452" s="3"/>
       <c r="N452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -7902,7 +7915,7 @@
       <c r="M453" s="3"/>
       <c r="N453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -7918,7 +7931,7 @@
       <c r="M454" s="3"/>
       <c r="N454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -7934,7 +7947,7 @@
       <c r="M455" s="3"/>
       <c r="N455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -7950,7 +7963,7 @@
       <c r="M456" s="3"/>
       <c r="N456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -7966,7 +7979,7 @@
       <c r="M457" s="3"/>
       <c r="N457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -7982,7 +7995,7 @@
       <c r="M458" s="3"/>
       <c r="N458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -7998,7 +8011,7 @@
       <c r="M459" s="3"/>
       <c r="N459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -8014,7 +8027,7 @@
       <c r="M460" s="3"/>
       <c r="N460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -8030,7 +8043,7 @@
       <c r="M461" s="3"/>
       <c r="N461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -8046,7 +8059,7 @@
       <c r="M462" s="3"/>
       <c r="N462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -8062,7 +8075,7 @@
       <c r="M463" s="3"/>
       <c r="N463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -8078,7 +8091,7 @@
       <c r="M464" s="3"/>
       <c r="N464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -8094,7 +8107,7 @@
       <c r="M465" s="3"/>
       <c r="N465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -8110,7 +8123,7 @@
       <c r="M466" s="3"/>
       <c r="N466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -8126,7 +8139,7 @@
       <c r="M467" s="3"/>
       <c r="N467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -8142,7 +8155,7 @@
       <c r="M468" s="3"/>
       <c r="N468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -8158,7 +8171,7 @@
       <c r="M469" s="3"/>
       <c r="N469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -8174,7 +8187,7 @@
       <c r="M470" s="3"/>
       <c r="N470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -8190,7 +8203,7 @@
       <c r="M471" s="3"/>
       <c r="N471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -8206,7 +8219,7 @@
       <c r="M472" s="3"/>
       <c r="N472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -8222,7 +8235,7 @@
       <c r="M473" s="3"/>
       <c r="N473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -8238,7 +8251,7 @@
       <c r="M474" s="3"/>
       <c r="N474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -8254,7 +8267,7 @@
       <c r="M475" s="3"/>
       <c r="N475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -8270,7 +8283,7 @@
       <c r="M476" s="3"/>
       <c r="N476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -8286,7 +8299,7 @@
       <c r="M477" s="3"/>
       <c r="N477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -8302,7 +8315,7 @@
       <c r="M478" s="3"/>
       <c r="N478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -8318,7 +8331,7 @@
       <c r="M479" s="3"/>
       <c r="N479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -8334,7 +8347,7 @@
       <c r="M480" s="3"/>
       <c r="N480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -8350,7 +8363,7 @@
       <c r="M481" s="3"/>
       <c r="N481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -8366,7 +8379,7 @@
       <c r="M482" s="3"/>
       <c r="N482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -8382,7 +8395,7 @@
       <c r="M483" s="3"/>
       <c r="N483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -8398,7 +8411,7 @@
       <c r="M484" s="3"/>
       <c r="N484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -8414,7 +8427,7 @@
       <c r="M485" s="3"/>
       <c r="N485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -8430,7 +8443,7 @@
       <c r="M486" s="3"/>
       <c r="N486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -8446,7 +8459,7 @@
       <c r="M487" s="3"/>
       <c r="N487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -8462,7 +8475,7 @@
       <c r="M488" s="3"/>
       <c r="N488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -8478,7 +8491,7 @@
       <c r="M489" s="3"/>
       <c r="N489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -8494,7 +8507,7 @@
       <c r="M490" s="3"/>
       <c r="N490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -8510,7 +8523,7 @@
       <c r="M491" s="3"/>
       <c r="N491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -8526,7 +8539,7 @@
       <c r="M492" s="3"/>
       <c r="N492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -8542,7 +8555,7 @@
       <c r="M493" s="3"/>
       <c r="N493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -8558,7 +8571,7 @@
       <c r="M494" s="3"/>
       <c r="N494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -8574,7 +8587,7 @@
       <c r="M495" s="3"/>
       <c r="N495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -8590,7 +8603,7 @@
       <c r="M496" s="3"/>
       <c r="N496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -8606,7 +8619,7 @@
       <c r="M497" s="3"/>
       <c r="N497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -8622,7 +8635,7 @@
       <c r="M498" s="3"/>
       <c r="N498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -8638,7 +8651,7 @@
       <c r="M499" s="3"/>
       <c r="N499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -8654,7 +8667,7 @@
       <c r="M500" s="3"/>
       <c r="N500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -8670,7 +8683,7 @@
       <c r="M501" s="3"/>
       <c r="N501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -8686,7 +8699,7 @@
       <c r="M502" s="3"/>
       <c r="N502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -8702,7 +8715,7 @@
       <c r="M503" s="3"/>
       <c r="N503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -8718,7 +8731,7 @@
       <c r="M504" s="3"/>
       <c r="N504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -8734,7 +8747,7 @@
       <c r="M505" s="3"/>
       <c r="N505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -8750,7 +8763,7 @@
       <c r="M506" s="3"/>
       <c r="N506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -8766,7 +8779,7 @@
       <c r="M507" s="3"/>
       <c r="N507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -8782,7 +8795,7 @@
       <c r="M508" s="3"/>
       <c r="N508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -8798,7 +8811,7 @@
       <c r="M509" s="3"/>
       <c r="N509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -8814,7 +8827,7 @@
       <c r="M510" s="3"/>
       <c r="N510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -8830,7 +8843,7 @@
       <c r="M511" s="3"/>
       <c r="N511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -8846,7 +8859,7 @@
       <c r="M512" s="3"/>
       <c r="N512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -8862,7 +8875,7 @@
       <c r="M513" s="3"/>
       <c r="N513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -8878,7 +8891,7 @@
       <c r="M514" s="3"/>
       <c r="N514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -8894,7 +8907,7 @@
       <c r="M515" s="3"/>
       <c r="N515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -8910,7 +8923,7 @@
       <c r="M516" s="3"/>
       <c r="N516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -8926,7 +8939,7 @@
       <c r="M517" s="3"/>
       <c r="N517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -8942,7 +8955,7 @@
       <c r="M518" s="3"/>
       <c r="N518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -8958,7 +8971,7 @@
       <c r="M519" s="3"/>
       <c r="N519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -8974,7 +8987,7 @@
       <c r="M520" s="3"/>
       <c r="N520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -8990,7 +9003,7 @@
       <c r="M521" s="3"/>
       <c r="N521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -9006,7 +9019,7 @@
       <c r="M522" s="3"/>
       <c r="N522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -9022,7 +9035,7 @@
       <c r="M523" s="3"/>
       <c r="N523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -9038,7 +9051,7 @@
       <c r="M524" s="3"/>
       <c r="N524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -9054,7 +9067,7 @@
       <c r="M525" s="3"/>
       <c r="N525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -9070,7 +9083,7 @@
       <c r="M526" s="3"/>
       <c r="N526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -9086,7 +9099,7 @@
       <c r="M527" s="3"/>
       <c r="N527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -9102,7 +9115,7 @@
       <c r="M528" s="3"/>
       <c r="N528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -9118,7 +9131,7 @@
       <c r="M529" s="3"/>
       <c r="N529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -9134,7 +9147,7 @@
       <c r="M530" s="3"/>
       <c r="N530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -9150,7 +9163,7 @@
       <c r="M531" s="3"/>
       <c r="N531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -9166,7 +9179,7 @@
       <c r="M532" s="3"/>
       <c r="N532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -9182,7 +9195,7 @@
       <c r="M533" s="3"/>
       <c r="N533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -9198,7 +9211,7 @@
       <c r="M534" s="3"/>
       <c r="N534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -9214,7 +9227,7 @@
       <c r="M535" s="3"/>
       <c r="N535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -9230,7 +9243,7 @@
       <c r="M536" s="3"/>
       <c r="N536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -9246,7 +9259,7 @@
       <c r="M537" s="3"/>
       <c r="N537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -9262,7 +9275,7 @@
       <c r="M538" s="3"/>
       <c r="N538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -9278,7 +9291,7 @@
       <c r="M539" s="3"/>
       <c r="N539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -9294,7 +9307,7 @@
       <c r="M540" s="3"/>
       <c r="N540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -9310,7 +9323,7 @@
       <c r="M541" s="3"/>
       <c r="N541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -9326,7 +9339,7 @@
       <c r="M542" s="3"/>
       <c r="N542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -9342,7 +9355,7 @@
       <c r="M543" s="3"/>
       <c r="N543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -9358,7 +9371,7 @@
       <c r="M544" s="3"/>
       <c r="N544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -9374,7 +9387,7 @@
       <c r="M545" s="3"/>
       <c r="N545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -9390,7 +9403,7 @@
       <c r="M546" s="3"/>
       <c r="N546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -9406,7 +9419,7 @@
       <c r="M547" s="3"/>
       <c r="N547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -9422,7 +9435,7 @@
       <c r="M548" s="3"/>
       <c r="N548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -9438,7 +9451,7 @@
       <c r="M549" s="3"/>
       <c r="N549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -9454,7 +9467,7 @@
       <c r="M550" s="3"/>
       <c r="N550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -9470,7 +9483,7 @@
       <c r="M551" s="3"/>
       <c r="N551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -9486,7 +9499,7 @@
       <c r="M552" s="3"/>
       <c r="N552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -9502,7 +9515,7 @@
       <c r="M553" s="3"/>
       <c r="N553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -9518,7 +9531,7 @@
       <c r="M554" s="3"/>
       <c r="N554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -9534,7 +9547,7 @@
       <c r="M555" s="3"/>
       <c r="N555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -9550,7 +9563,7 @@
       <c r="M556" s="3"/>
       <c r="N556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -9566,7 +9579,7 @@
       <c r="M557" s="3"/>
       <c r="N557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -9582,7 +9595,7 @@
       <c r="M558" s="3"/>
       <c r="N558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -9598,7 +9611,7 @@
       <c r="M559" s="3"/>
       <c r="N559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -9614,7 +9627,7 @@
       <c r="M560" s="3"/>
       <c r="N560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -9630,7 +9643,7 @@
       <c r="M561" s="3"/>
       <c r="N561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -9646,7 +9659,7 @@
       <c r="M562" s="3"/>
       <c r="N562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -9662,7 +9675,7 @@
       <c r="M563" s="3"/>
       <c r="N563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -9678,7 +9691,7 @@
       <c r="M564" s="3"/>
       <c r="N564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -9694,7 +9707,7 @@
       <c r="M565" s="3"/>
       <c r="N565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -9710,7 +9723,7 @@
       <c r="M566" s="3"/>
       <c r="N566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -9726,7 +9739,7 @@
       <c r="M567" s="3"/>
       <c r="N567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -9742,7 +9755,7 @@
       <c r="M568" s="3"/>
       <c r="N568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -9758,7 +9771,7 @@
       <c r="M569" s="3"/>
       <c r="N569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -9774,7 +9787,7 @@
       <c r="M570" s="3"/>
       <c r="N570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -9790,7 +9803,7 @@
       <c r="M571" s="3"/>
       <c r="N571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -9806,7 +9819,7 @@
       <c r="M572" s="3"/>
       <c r="N572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -9822,7 +9835,7 @@
       <c r="M573" s="3"/>
       <c r="N573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -9838,7 +9851,7 @@
       <c r="M574" s="3"/>
       <c r="N574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -9854,7 +9867,7 @@
       <c r="M575" s="3"/>
       <c r="N575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -9870,7 +9883,7 @@
       <c r="M576" s="3"/>
       <c r="N576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -9886,7 +9899,7 @@
       <c r="M577" s="3"/>
       <c r="N577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -9902,7 +9915,7 @@
       <c r="M578" s="3"/>
       <c r="N578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -9918,7 +9931,7 @@
       <c r="M579" s="3"/>
       <c r="N579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -9934,7 +9947,7 @@
       <c r="M580" s="3"/>
       <c r="N580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -9950,7 +9963,7 @@
       <c r="M581" s="3"/>
       <c r="N581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -9966,7 +9979,7 @@
       <c r="M582" s="3"/>
       <c r="N582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -9982,7 +9995,7 @@
       <c r="M583" s="3"/>
       <c r="N583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -9998,7 +10011,7 @@
       <c r="M584" s="3"/>
       <c r="N584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -10014,7 +10027,7 @@
       <c r="M585" s="3"/>
       <c r="N585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -10030,7 +10043,7 @@
       <c r="M586" s="3"/>
       <c r="N586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -10046,7 +10059,7 @@
       <c r="M587" s="3"/>
       <c r="N587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -10062,7 +10075,7 @@
       <c r="M588" s="3"/>
       <c r="N588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -10078,7 +10091,7 @@
       <c r="M589" s="3"/>
       <c r="N589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -10094,7 +10107,7 @@
       <c r="M590" s="3"/>
       <c r="N590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -10110,7 +10123,7 @@
       <c r="M591" s="3"/>
       <c r="N591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -10126,7 +10139,7 @@
       <c r="M592" s="3"/>
       <c r="N592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -10142,7 +10155,7 @@
       <c r="M593" s="3"/>
       <c r="N593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -10158,7 +10171,7 @@
       <c r="M594" s="3"/>
       <c r="N594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -10174,7 +10187,7 @@
       <c r="M595" s="3"/>
       <c r="N595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -10190,7 +10203,7 @@
       <c r="M596" s="3"/>
       <c r="N596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -10206,7 +10219,7 @@
       <c r="M597" s="3"/>
       <c r="N597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -10222,7 +10235,7 @@
       <c r="M598" s="3"/>
       <c r="N598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -10238,7 +10251,7 @@
       <c r="M599" s="3"/>
       <c r="N599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -10254,7 +10267,7 @@
       <c r="M600" s="3"/>
       <c r="N600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -10270,7 +10283,7 @@
       <c r="M601" s="3"/>
       <c r="N601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -10286,7 +10299,7 @@
       <c r="M602" s="3"/>
       <c r="N602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -10302,7 +10315,7 @@
       <c r="M603" s="3"/>
       <c r="N603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -10318,7 +10331,7 @@
       <c r="M604" s="3"/>
       <c r="N604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -10334,7 +10347,7 @@
       <c r="M605" s="3"/>
       <c r="N605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -10350,7 +10363,7 @@
       <c r="M606" s="3"/>
       <c r="N606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -10366,7 +10379,7 @@
       <c r="M607" s="3"/>
       <c r="N607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -10382,7 +10395,7 @@
       <c r="M608" s="3"/>
       <c r="N608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -10398,7 +10411,7 @@
       <c r="M609" s="3"/>
       <c r="N609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -10414,7 +10427,7 @@
       <c r="M610" s="3"/>
       <c r="N610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -10430,7 +10443,7 @@
       <c r="M611" s="3"/>
       <c r="N611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -10446,7 +10459,7 @@
       <c r="M612" s="3"/>
       <c r="N612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -10462,7 +10475,7 @@
       <c r="M613" s="3"/>
       <c r="N613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -10478,7 +10491,7 @@
       <c r="M614" s="3"/>
       <c r="N614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -10494,7 +10507,7 @@
       <c r="M615" s="3"/>
       <c r="N615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -10510,7 +10523,7 @@
       <c r="M616" s="3"/>
       <c r="N616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -10526,7 +10539,7 @@
       <c r="M617" s="3"/>
       <c r="N617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -10542,7 +10555,7 @@
       <c r="M618" s="3"/>
       <c r="N618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -10558,7 +10571,7 @@
       <c r="M619" s="3"/>
       <c r="N619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -10574,7 +10587,7 @@
       <c r="M620" s="3"/>
       <c r="N620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -10590,7 +10603,7 @@
       <c r="M621" s="3"/>
       <c r="N621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -10606,7 +10619,7 @@
       <c r="M622" s="3"/>
       <c r="N622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -10622,7 +10635,7 @@
       <c r="M623" s="3"/>
       <c r="N623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -10638,7 +10651,7 @@
       <c r="M624" s="3"/>
       <c r="N624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -10654,7 +10667,7 @@
       <c r="M625" s="3"/>
       <c r="N625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -10670,7 +10683,7 @@
       <c r="M626" s="3"/>
       <c r="N626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -10686,7 +10699,7 @@
       <c r="M627" s="3"/>
       <c r="N627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -10702,7 +10715,7 @@
       <c r="M628" s="3"/>
       <c r="N628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -10718,7 +10731,7 @@
       <c r="M629" s="3"/>
       <c r="N629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -10734,7 +10747,7 @@
       <c r="M630" s="3"/>
       <c r="N630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -10750,7 +10763,7 @@
       <c r="M631" s="3"/>
       <c r="N631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -10766,7 +10779,7 @@
       <c r="M632" s="3"/>
       <c r="N632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -10782,7 +10795,7 @@
       <c r="M633" s="3"/>
       <c r="N633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -10798,7 +10811,7 @@
       <c r="M634" s="3"/>
       <c r="N634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -10814,7 +10827,7 @@
       <c r="M635" s="3"/>
       <c r="N635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -10830,7 +10843,7 @@
       <c r="M636" s="3"/>
       <c r="N636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -10846,7 +10859,7 @@
       <c r="M637" s="3"/>
       <c r="N637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -10862,7 +10875,7 @@
       <c r="M638" s="3"/>
       <c r="N638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -10878,7 +10891,7 @@
       <c r="M639" s="3"/>
       <c r="N639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -10894,7 +10907,7 @@
       <c r="M640" s="3"/>
       <c r="N640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -10910,7 +10923,7 @@
       <c r="M641" s="3"/>
       <c r="N641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -10926,7 +10939,7 @@
       <c r="M642" s="3"/>
       <c r="N642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -10942,7 +10955,7 @@
       <c r="M643" s="3"/>
       <c r="N643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -10958,7 +10971,7 @@
       <c r="M644" s="3"/>
       <c r="N644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -10974,7 +10987,7 @@
       <c r="M645" s="3"/>
       <c r="N645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -10990,7 +11003,7 @@
       <c r="M646" s="3"/>
       <c r="N646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -11006,7 +11019,7 @@
       <c r="M647" s="3"/>
       <c r="N647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -11022,7 +11035,7 @@
       <c r="M648" s="3"/>
       <c r="N648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -11038,7 +11051,7 @@
       <c r="M649" s="3"/>
       <c r="N649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -11054,7 +11067,7 @@
       <c r="M650" s="3"/>
       <c r="N650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -11070,7 +11083,7 @@
       <c r="M651" s="3"/>
       <c r="N651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -11086,7 +11099,7 @@
       <c r="M652" s="3"/>
       <c r="N652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -11102,7 +11115,7 @@
       <c r="M653" s="3"/>
       <c r="N653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -11118,7 +11131,7 @@
       <c r="M654" s="3"/>
       <c r="N654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -11134,7 +11147,7 @@
       <c r="M655" s="3"/>
       <c r="N655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -11150,7 +11163,7 @@
       <c r="M656" s="3"/>
       <c r="N656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -11166,7 +11179,7 @@
       <c r="M657" s="3"/>
       <c r="N657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -11182,7 +11195,7 @@
       <c r="M658" s="3"/>
       <c r="N658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -11198,7 +11211,7 @@
       <c r="M659" s="3"/>
       <c r="N659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -11214,7 +11227,7 @@
       <c r="M660" s="3"/>
       <c r="N660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -11230,7 +11243,7 @@
       <c r="M661" s="3"/>
       <c r="N661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -11246,7 +11259,7 @@
       <c r="M662" s="3"/>
       <c r="N662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -11262,7 +11275,7 @@
       <c r="M663" s="3"/>
       <c r="N663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -11278,7 +11291,7 @@
       <c r="M664" s="3"/>
       <c r="N664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -11294,7 +11307,7 @@
       <c r="M665" s="3"/>
       <c r="N665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -11310,7 +11323,7 @@
       <c r="M666" s="3"/>
       <c r="N666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -11326,7 +11339,7 @@
       <c r="M667" s="3"/>
       <c r="N667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -11342,7 +11355,7 @@
       <c r="M668" s="3"/>
       <c r="N668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -11358,7 +11371,7 @@
       <c r="M669" s="3"/>
       <c r="N669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -11374,7 +11387,7 @@
       <c r="M670" s="3"/>
       <c r="N670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -11390,7 +11403,7 @@
       <c r="M671" s="3"/>
       <c r="N671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -11406,7 +11419,7 @@
       <c r="M672" s="3"/>
       <c r="N672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -11422,7 +11435,7 @@
       <c r="M673" s="3"/>
       <c r="N673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -11438,7 +11451,7 @@
       <c r="M674" s="3"/>
       <c r="N674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -11454,7 +11467,7 @@
       <c r="M675" s="3"/>
       <c r="N675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -11470,7 +11483,7 @@
       <c r="M676" s="3"/>
       <c r="N676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -11486,7 +11499,7 @@
       <c r="M677" s="3"/>
       <c r="N677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -11502,7 +11515,7 @@
       <c r="M678" s="3"/>
       <c r="N678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -11518,7 +11531,7 @@
       <c r="M679" s="3"/>
       <c r="N679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -11534,7 +11547,7 @@
       <c r="M680" s="3"/>
       <c r="N680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -11550,7 +11563,7 @@
       <c r="M681" s="3"/>
       <c r="N681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -11566,7 +11579,7 @@
       <c r="M682" s="3"/>
       <c r="N682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -11582,7 +11595,7 @@
       <c r="M683" s="3"/>
       <c r="N683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -11598,7 +11611,7 @@
       <c r="M684" s="3"/>
       <c r="N684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -11614,7 +11627,7 @@
       <c r="M685" s="3"/>
       <c r="N685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -11630,7 +11643,7 @@
       <c r="M686" s="3"/>
       <c r="N686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -11646,7 +11659,7 @@
       <c r="M687" s="3"/>
       <c r="N687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -11662,7 +11675,7 @@
       <c r="M688" s="3"/>
       <c r="N688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -11678,7 +11691,7 @@
       <c r="M689" s="3"/>
       <c r="N689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -11694,7 +11707,7 @@
       <c r="M690" s="3"/>
       <c r="N690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -11710,7 +11723,7 @@
       <c r="M691" s="3"/>
       <c r="N691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -11726,7 +11739,7 @@
       <c r="M692" s="3"/>
       <c r="N692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -11742,7 +11755,7 @@
       <c r="M693" s="3"/>
       <c r="N693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -11758,7 +11771,7 @@
       <c r="M694" s="3"/>
       <c r="N694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -11774,7 +11787,7 @@
       <c r="M695" s="3"/>
       <c r="N695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -11790,7 +11803,7 @@
       <c r="M696" s="3"/>
       <c r="N696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -11806,7 +11819,7 @@
       <c r="M697" s="3"/>
       <c r="N697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -11822,7 +11835,7 @@
       <c r="M698" s="3"/>
       <c r="N698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -11838,7 +11851,7 @@
       <c r="M699" s="3"/>
       <c r="N699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -11854,7 +11867,7 @@
       <c r="M700" s="3"/>
       <c r="N700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -11870,7 +11883,7 @@
       <c r="M701" s="3"/>
       <c r="N701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -11886,7 +11899,7 @@
       <c r="M702" s="3"/>
       <c r="N702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -11902,7 +11915,7 @@
       <c r="M703" s="3"/>
       <c r="N703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -11918,7 +11931,7 @@
       <c r="M704" s="3"/>
       <c r="N704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -11934,7 +11947,7 @@
       <c r="M705" s="3"/>
       <c r="N705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -11950,7 +11963,7 @@
       <c r="M706" s="3"/>
       <c r="N706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -11966,7 +11979,7 @@
       <c r="M707" s="3"/>
       <c r="N707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -11982,7 +11995,7 @@
       <c r="M708" s="3"/>
       <c r="N708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -11998,7 +12011,7 @@
       <c r="M709" s="3"/>
       <c r="N709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -12014,7 +12027,7 @@
       <c r="M710" s="3"/>
       <c r="N710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -12030,7 +12043,7 @@
       <c r="M711" s="3"/>
       <c r="N711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -12046,7 +12059,7 @@
       <c r="M712" s="3"/>
       <c r="N712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -12062,7 +12075,7 @@
       <c r="M713" s="3"/>
       <c r="N713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -12078,7 +12091,7 @@
       <c r="M714" s="3"/>
       <c r="N714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -12094,7 +12107,7 @@
       <c r="M715" s="3"/>
       <c r="N715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -12110,7 +12123,7 @@
       <c r="M716" s="3"/>
       <c r="N716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -12126,7 +12139,7 @@
       <c r="M717" s="3"/>
       <c r="N717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -12142,7 +12155,7 @@
       <c r="M718" s="3"/>
       <c r="N718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -12158,7 +12171,7 @@
       <c r="M719" s="3"/>
       <c r="N719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -12174,7 +12187,7 @@
       <c r="M720" s="3"/>
       <c r="N720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -12190,7 +12203,7 @@
       <c r="M721" s="3"/>
       <c r="N721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -12206,7 +12219,7 @@
       <c r="M722" s="3"/>
       <c r="N722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -12222,7 +12235,7 @@
       <c r="M723" s="3"/>
       <c r="N723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -12238,7 +12251,7 @@
       <c r="M724" s="3"/>
       <c r="N724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -12254,7 +12267,7 @@
       <c r="M725" s="3"/>
       <c r="N725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -12270,7 +12283,7 @@
       <c r="M726" s="3"/>
       <c r="N726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -12286,7 +12299,7 @@
       <c r="M727" s="3"/>
       <c r="N727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -12302,7 +12315,7 @@
       <c r="M728" s="3"/>
       <c r="N728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -12318,7 +12331,7 @@
       <c r="M729" s="3"/>
       <c r="N729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -12334,7 +12347,7 @@
       <c r="M730" s="3"/>
       <c r="N730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -12350,7 +12363,7 @@
       <c r="M731" s="3"/>
       <c r="N731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -12366,7 +12379,7 @@
       <c r="M732" s="3"/>
       <c r="N732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -12382,7 +12395,7 @@
       <c r="M733" s="3"/>
       <c r="N733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -12398,7 +12411,7 @@
       <c r="M734" s="3"/>
       <c r="N734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -12414,7 +12427,7 @@
       <c r="M735" s="3"/>
       <c r="N735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -12430,7 +12443,7 @@
       <c r="M736" s="3"/>
       <c r="N736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -12446,7 +12459,7 @@
       <c r="M737" s="3"/>
       <c r="N737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -12462,7 +12475,7 @@
       <c r="M738" s="3"/>
       <c r="N738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -12478,7 +12491,7 @@
       <c r="M739" s="3"/>
       <c r="N739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -12494,7 +12507,7 @@
       <c r="M740" s="3"/>
       <c r="N740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -12510,7 +12523,7 @@
       <c r="M741" s="3"/>
       <c r="N741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -12526,7 +12539,7 @@
       <c r="M742" s="3"/>
       <c r="N742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -12542,7 +12555,7 @@
       <c r="M743" s="3"/>
       <c r="N743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -12558,7 +12571,7 @@
       <c r="M744" s="3"/>
       <c r="N744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -12574,7 +12587,7 @@
       <c r="M745" s="3"/>
       <c r="N745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -12590,7 +12603,7 @@
       <c r="M746" s="3"/>
       <c r="N746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -12606,7 +12619,7 @@
       <c r="M747" s="3"/>
       <c r="N747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -12622,7 +12635,7 @@
       <c r="M748" s="3"/>
       <c r="N748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -12638,7 +12651,7 @@
       <c r="M749" s="3"/>
       <c r="N749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -12654,7 +12667,7 @@
       <c r="M750" s="3"/>
       <c r="N750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -12670,7 +12683,7 @@
       <c r="M751" s="3"/>
       <c r="N751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -12686,7 +12699,7 @@
       <c r="M752" s="3"/>
       <c r="N752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -12702,7 +12715,7 @@
       <c r="M753" s="3"/>
       <c r="N753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -12718,7 +12731,7 @@
       <c r="M754" s="3"/>
       <c r="N754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -12734,7 +12747,7 @@
       <c r="M755" s="3"/>
       <c r="N755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -12750,7 +12763,7 @@
       <c r="M756" s="3"/>
       <c r="N756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -12766,7 +12779,7 @@
       <c r="M757" s="3"/>
       <c r="N757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -12782,7 +12795,7 @@
       <c r="M758" s="3"/>
       <c r="N758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -12798,7 +12811,7 @@
       <c r="M759" s="3"/>
       <c r="N759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -12814,7 +12827,7 @@
       <c r="M760" s="3"/>
       <c r="N760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -12830,7 +12843,7 @@
       <c r="M761" s="3"/>
       <c r="N761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -12846,7 +12859,7 @@
       <c r="M762" s="3"/>
       <c r="N762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -12862,7 +12875,7 @@
       <c r="M763" s="3"/>
       <c r="N763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -12878,7 +12891,7 @@
       <c r="M764" s="3"/>
       <c r="N764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -12894,7 +12907,7 @@
       <c r="M765" s="3"/>
       <c r="N765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -12910,7 +12923,7 @@
       <c r="M766" s="3"/>
       <c r="N766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -12926,7 +12939,7 @@
       <c r="M767" s="3"/>
       <c r="N767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -12942,7 +12955,7 @@
       <c r="M768" s="3"/>
       <c r="N768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -12958,7 +12971,7 @@
       <c r="M769" s="3"/>
       <c r="N769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -12974,7 +12987,7 @@
       <c r="M770" s="3"/>
       <c r="N770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -12990,7 +13003,7 @@
       <c r="M771" s="3"/>
       <c r="N771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -13006,7 +13019,7 @@
       <c r="M772" s="3"/>
       <c r="N772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -13022,7 +13035,7 @@
       <c r="M773" s="3"/>
       <c r="N773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -13038,7 +13051,7 @@
       <c r="M774" s="3"/>
       <c r="N774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -13054,7 +13067,7 @@
       <c r="M775" s="3"/>
       <c r="N775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -13070,7 +13083,7 @@
       <c r="M776" s="3"/>
       <c r="N776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -13086,7 +13099,7 @@
       <c r="M777" s="3"/>
       <c r="N777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -13102,7 +13115,7 @@
       <c r="M778" s="3"/>
       <c r="N778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -13118,7 +13131,7 @@
       <c r="M779" s="3"/>
       <c r="N779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -13134,7 +13147,7 @@
       <c r="M780" s="3"/>
       <c r="N780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -13150,7 +13163,7 @@
       <c r="M781" s="3"/>
       <c r="N781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -13166,7 +13179,7 @@
       <c r="M782" s="3"/>
       <c r="N782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -13182,7 +13195,7 @@
       <c r="M783" s="3"/>
       <c r="N783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -13198,7 +13211,7 @@
       <c r="M784" s="3"/>
       <c r="N784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -13214,7 +13227,7 @@
       <c r="M785" s="3"/>
       <c r="N785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -13230,7 +13243,7 @@
       <c r="M786" s="3"/>
       <c r="N786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -13246,7 +13259,7 @@
       <c r="M787" s="3"/>
       <c r="N787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -13262,7 +13275,7 @@
       <c r="M788" s="3"/>
       <c r="N788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -13278,7 +13291,7 @@
       <c r="M789" s="3"/>
       <c r="N789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -13294,7 +13307,7 @@
       <c r="M790" s="3"/>
       <c r="N790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -13310,7 +13323,7 @@
       <c r="M791" s="3"/>
       <c r="N791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -13326,7 +13339,7 @@
       <c r="M792" s="3"/>
       <c r="N792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -13342,7 +13355,7 @@
       <c r="M793" s="3"/>
       <c r="N793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -13358,7 +13371,7 @@
       <c r="M794" s="3"/>
       <c r="N794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -13374,7 +13387,7 @@
       <c r="M795" s="3"/>
       <c r="N795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -13390,7 +13403,7 @@
       <c r="M796" s="3"/>
       <c r="N796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -13406,7 +13419,7 @@
       <c r="M797" s="3"/>
       <c r="N797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -13422,7 +13435,7 @@
       <c r="M798" s="3"/>
       <c r="N798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -13438,7 +13451,7 @@
       <c r="M799" s="3"/>
       <c r="N799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -13454,7 +13467,7 @@
       <c r="M800" s="3"/>
       <c r="N800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -13470,7 +13483,7 @@
       <c r="M801" s="3"/>
       <c r="N801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -13486,7 +13499,7 @@
       <c r="M802" s="3"/>
       <c r="N802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -13502,7 +13515,7 @@
       <c r="M803" s="3"/>
       <c r="N803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -13518,7 +13531,7 @@
       <c r="M804" s="3"/>
       <c r="N804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -13534,7 +13547,7 @@
       <c r="M805" s="3"/>
       <c r="N805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -13550,7 +13563,7 @@
       <c r="M806" s="3"/>
       <c r="N806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -13566,7 +13579,7 @@
       <c r="M807" s="3"/>
       <c r="N807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -13582,7 +13595,7 @@
       <c r="M808" s="3"/>
       <c r="N808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -13598,7 +13611,7 @@
       <c r="M809" s="3"/>
       <c r="N809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -13614,7 +13627,7 @@
       <c r="M810" s="3"/>
       <c r="N810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -13630,7 +13643,7 @@
       <c r="M811" s="3"/>
       <c r="N811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -13646,7 +13659,7 @@
       <c r="M812" s="3"/>
       <c r="N812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -13662,7 +13675,7 @@
       <c r="M813" s="3"/>
       <c r="N813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -13678,7 +13691,7 @@
       <c r="M814" s="3"/>
       <c r="N814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -13694,7 +13707,7 @@
       <c r="M815" s="3"/>
       <c r="N815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -13710,7 +13723,7 @@
       <c r="M816" s="3"/>
       <c r="N816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -13726,7 +13739,7 @@
       <c r="M817" s="3"/>
       <c r="N817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -13742,7 +13755,7 @@
       <c r="M818" s="3"/>
       <c r="N818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -13758,7 +13771,7 @@
       <c r="M819" s="3"/>
       <c r="N819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -13774,7 +13787,7 @@
       <c r="M820" s="3"/>
       <c r="N820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -13790,7 +13803,7 @@
       <c r="M821" s="3"/>
       <c r="N821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -13806,7 +13819,7 @@
       <c r="M822" s="3"/>
       <c r="N822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -13822,7 +13835,7 @@
       <c r="M823" s="3"/>
       <c r="N823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -13838,7 +13851,7 @@
       <c r="M824" s="3"/>
       <c r="N824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -13854,7 +13867,7 @@
       <c r="M825" s="3"/>
       <c r="N825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -13870,7 +13883,7 @@
       <c r="M826" s="3"/>
       <c r="N826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -13886,7 +13899,7 @@
       <c r="M827" s="3"/>
       <c r="N827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -13902,7 +13915,7 @@
       <c r="M828" s="3"/>
       <c r="N828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -13918,7 +13931,7 @@
       <c r="M829" s="3"/>
       <c r="N829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -13934,7 +13947,7 @@
       <c r="M830" s="3"/>
       <c r="N830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -13950,7 +13963,7 @@
       <c r="M831" s="3"/>
       <c r="N831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -13966,7 +13979,7 @@
       <c r="M832" s="3"/>
       <c r="N832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -13982,7 +13995,7 @@
       <c r="M833" s="3"/>
       <c r="N833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -13998,7 +14011,7 @@
       <c r="M834" s="3"/>
       <c r="N834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -14014,7 +14027,7 @@
       <c r="M835" s="3"/>
       <c r="N835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -14030,7 +14043,7 @@
       <c r="M836" s="3"/>
       <c r="N836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -14046,7 +14059,7 @@
       <c r="M837" s="3"/>
       <c r="N837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -14062,7 +14075,7 @@
       <c r="M838" s="3"/>
       <c r="N838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -14078,7 +14091,7 @@
       <c r="M839" s="3"/>
       <c r="N839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -14094,7 +14107,7 @@
       <c r="M840" s="3"/>
       <c r="N840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -14110,7 +14123,7 @@
       <c r="M841" s="3"/>
       <c r="N841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -14126,7 +14139,7 @@
       <c r="M842" s="3"/>
       <c r="N842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -14142,7 +14155,7 @@
       <c r="M843" s="3"/>
       <c r="N843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -14158,7 +14171,7 @@
       <c r="M844" s="3"/>
       <c r="N844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -14174,7 +14187,7 @@
       <c r="M845" s="3"/>
       <c r="N845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -14190,7 +14203,7 @@
       <c r="M846" s="3"/>
       <c r="N846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -14206,7 +14219,7 @@
       <c r="M847" s="3"/>
       <c r="N847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -14222,7 +14235,7 @@
       <c r="M848" s="3"/>
       <c r="N848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -14238,7 +14251,7 @@
       <c r="M849" s="3"/>
       <c r="N849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -14254,7 +14267,7 @@
       <c r="M850" s="3"/>
       <c r="N850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -14270,7 +14283,7 @@
       <c r="M851" s="3"/>
       <c r="N851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -14286,7 +14299,7 @@
       <c r="M852" s="3"/>
       <c r="N852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -14302,7 +14315,7 @@
       <c r="M853" s="3"/>
       <c r="N853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -14318,7 +14331,7 @@
       <c r="M854" s="3"/>
       <c r="N854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -14334,7 +14347,7 @@
       <c r="M855" s="3"/>
       <c r="N855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -14350,7 +14363,7 @@
       <c r="M856" s="3"/>
       <c r="N856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -14366,7 +14379,7 @@
       <c r="M857" s="3"/>
       <c r="N857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -14382,7 +14395,7 @@
       <c r="M858" s="3"/>
       <c r="N858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -14398,7 +14411,7 @@
       <c r="M859" s="3"/>
       <c r="N859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -14414,7 +14427,7 @@
       <c r="M860" s="3"/>
       <c r="N860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -14430,7 +14443,7 @@
       <c r="M861" s="3"/>
       <c r="N861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -14446,7 +14459,7 @@
       <c r="M862" s="3"/>
       <c r="N862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -14462,7 +14475,7 @@
       <c r="M863" s="3"/>
       <c r="N863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -14478,7 +14491,7 @@
       <c r="M864" s="3"/>
       <c r="N864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -14494,7 +14507,7 @@
       <c r="M865" s="3"/>
       <c r="N865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -14510,7 +14523,7 @@
       <c r="M866" s="3"/>
       <c r="N866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -14526,7 +14539,7 @@
       <c r="M867" s="3"/>
       <c r="N867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -14542,7 +14555,7 @@
       <c r="M868" s="3"/>
       <c r="N868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -14558,7 +14571,7 @@
       <c r="M869" s="3"/>
       <c r="N869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -14574,7 +14587,7 @@
       <c r="M870" s="3"/>
       <c r="N870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -14590,7 +14603,7 @@
       <c r="M871" s="3"/>
       <c r="N871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -14606,7 +14619,7 @@
       <c r="M872" s="3"/>
       <c r="N872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -14622,7 +14635,7 @@
       <c r="M873" s="3"/>
       <c r="N873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -14638,7 +14651,7 @@
       <c r="M874" s="3"/>
       <c r="N874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -14654,7 +14667,7 @@
       <c r="M875" s="3"/>
       <c r="N875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -14670,7 +14683,7 @@
       <c r="M876" s="3"/>
       <c r="N876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -14686,7 +14699,7 @@
       <c r="M877" s="3"/>
       <c r="N877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -14702,7 +14715,7 @@
       <c r="M878" s="3"/>
       <c r="N878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -14718,7 +14731,7 @@
       <c r="M879" s="3"/>
       <c r="N879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -14734,7 +14747,7 @@
       <c r="M880" s="3"/>
       <c r="N880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -14750,7 +14763,7 @@
       <c r="M881" s="3"/>
       <c r="N881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -14766,7 +14779,7 @@
       <c r="M882" s="3"/>
       <c r="N882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -14782,7 +14795,7 @@
       <c r="M883" s="3"/>
       <c r="N883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -14798,7 +14811,7 @@
       <c r="M884" s="3"/>
       <c r="N884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -14814,7 +14827,7 @@
       <c r="M885" s="3"/>
       <c r="N885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -14830,7 +14843,7 @@
       <c r="M886" s="3"/>
       <c r="N886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -14846,7 +14859,7 @@
       <c r="M887" s="3"/>
       <c r="N887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -14862,7 +14875,7 @@
       <c r="M888" s="3"/>
       <c r="N888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -14878,7 +14891,7 @@
       <c r="M889" s="3"/>
       <c r="N889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -14894,7 +14907,7 @@
       <c r="M890" s="3"/>
       <c r="N890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -14910,7 +14923,7 @@
       <c r="M891" s="3"/>
       <c r="N891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -14926,7 +14939,7 @@
       <c r="M892" s="3"/>
       <c r="N892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -14942,7 +14955,7 @@
       <c r="M893" s="3"/>
       <c r="N893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -14958,7 +14971,7 @@
       <c r="M894" s="3"/>
       <c r="N894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -14974,7 +14987,7 @@
       <c r="M895" s="3"/>
       <c r="N895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -14990,7 +15003,7 @@
       <c r="M896" s="3"/>
       <c r="N896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -15006,7 +15019,7 @@
       <c r="M897" s="3"/>
       <c r="N897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -15022,7 +15035,7 @@
       <c r="M898" s="3"/>
       <c r="N898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -15038,7 +15051,7 @@
       <c r="M899" s="3"/>
       <c r="N899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -15054,7 +15067,7 @@
       <c r="M900" s="3"/>
       <c r="N900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -15070,7 +15083,7 @@
       <c r="M901" s="3"/>
       <c r="N901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -15086,7 +15099,7 @@
       <c r="M902" s="3"/>
       <c r="N902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -15102,7 +15115,7 @@
       <c r="M903" s="3"/>
       <c r="N903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -15118,7 +15131,7 @@
       <c r="M904" s="3"/>
       <c r="N904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -15134,7 +15147,7 @@
       <c r="M905" s="3"/>
       <c r="N905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -15150,7 +15163,7 @@
       <c r="M906" s="3"/>
       <c r="N906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -15166,7 +15179,7 @@
       <c r="M907" s="3"/>
       <c r="N907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -15182,7 +15195,7 @@
       <c r="M908" s="3"/>
       <c r="N908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -15198,7 +15211,7 @@
       <c r="M909" s="3"/>
       <c r="N909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -15214,7 +15227,7 @@
       <c r="M910" s="3"/>
       <c r="N910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -15230,7 +15243,7 @@
       <c r="M911" s="3"/>
       <c r="N911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -15246,7 +15259,7 @@
       <c r="M912" s="3"/>
       <c r="N912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -15262,7 +15275,7 @@
       <c r="M913" s="3"/>
       <c r="N913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -15278,7 +15291,7 @@
       <c r="M914" s="3"/>
       <c r="N914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -15294,7 +15307,7 @@
       <c r="M915" s="3"/>
       <c r="N915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -15310,7 +15323,7 @@
       <c r="M916" s="3"/>
       <c r="N916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -15326,7 +15339,7 @@
       <c r="M917" s="3"/>
       <c r="N917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -15342,7 +15355,7 @@
       <c r="M918" s="3"/>
       <c r="N918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -15358,7 +15371,7 @@
       <c r="M919" s="3"/>
       <c r="N919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -15374,7 +15387,7 @@
       <c r="M920" s="3"/>
       <c r="N920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -15390,7 +15403,7 @@
       <c r="M921" s="3"/>
       <c r="N921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -15406,7 +15419,7 @@
       <c r="M922" s="3"/>
       <c r="N922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -15422,7 +15435,7 @@
       <c r="M923" s="3"/>
       <c r="N923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -15438,7 +15451,7 @@
       <c r="M924" s="3"/>
       <c r="N924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -15454,7 +15467,7 @@
       <c r="M925" s="3"/>
       <c r="N925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -15470,7 +15483,7 @@
       <c r="M926" s="3"/>
       <c r="N926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -15486,7 +15499,7 @@
       <c r="M927" s="3"/>
       <c r="N927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -15502,7 +15515,7 @@
       <c r="M928" s="3"/>
       <c r="N928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -15518,7 +15531,7 @@
       <c r="M929" s="3"/>
       <c r="N929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -15534,7 +15547,7 @@
       <c r="M930" s="3"/>
       <c r="N930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -15550,7 +15563,7 @@
       <c r="M931" s="3"/>
       <c r="N931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -15566,7 +15579,7 @@
       <c r="M932" s="3"/>
       <c r="N932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -15582,7 +15595,7 @@
       <c r="M933" s="3"/>
       <c r="N933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -15598,7 +15611,7 @@
       <c r="M934" s="3"/>
       <c r="N934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -15614,7 +15627,7 @@
       <c r="M935" s="3"/>
       <c r="N935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -15630,7 +15643,7 @@
       <c r="M936" s="3"/>
       <c r="N936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -15646,7 +15659,7 @@
       <c r="M937" s="3"/>
       <c r="N937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -15662,7 +15675,7 @@
       <c r="M938" s="3"/>
       <c r="N938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -15678,7 +15691,7 @@
       <c r="M939" s="3"/>
       <c r="N939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -15694,7 +15707,7 @@
       <c r="M940" s="3"/>
       <c r="N940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -15710,7 +15723,7 @@
       <c r="M941" s="3"/>
       <c r="N941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -15726,7 +15739,7 @@
       <c r="M942" s="3"/>
       <c r="N942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -15742,7 +15755,7 @@
       <c r="M943" s="3"/>
       <c r="N943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -15758,7 +15771,7 @@
       <c r="M944" s="3"/>
       <c r="N944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -15774,7 +15787,7 @@
       <c r="M945" s="3"/>
       <c r="N945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -15790,7 +15803,7 @@
       <c r="M946" s="3"/>
       <c r="N946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -15806,7 +15819,7 @@
       <c r="M947" s="3"/>
       <c r="N947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -15822,7 +15835,7 @@
       <c r="M948" s="3"/>
       <c r="N948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -15838,7 +15851,7 @@
       <c r="M949" s="3"/>
       <c r="N949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -15854,7 +15867,7 @@
       <c r="M950" s="3"/>
       <c r="N950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -15870,7 +15883,7 @@
       <c r="M951" s="3"/>
       <c r="N951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -15886,7 +15899,7 @@
       <c r="M952" s="3"/>
       <c r="N952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -15902,7 +15915,7 @@
       <c r="M953" s="3"/>
       <c r="N953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -15918,7 +15931,7 @@
       <c r="M954" s="3"/>
       <c r="N954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -15934,7 +15947,7 @@
       <c r="M955" s="3"/>
       <c r="N955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -15950,7 +15963,7 @@
       <c r="M956" s="3"/>
       <c r="N956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -15966,7 +15979,7 @@
       <c r="M957" s="3"/>
       <c r="N957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -15982,7 +15995,7 @@
       <c r="M958" s="3"/>
       <c r="N958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -15998,7 +16011,7 @@
       <c r="M959" s="3"/>
       <c r="N959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -16014,7 +16027,7 @@
       <c r="M960" s="3"/>
       <c r="N960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -16030,7 +16043,7 @@
       <c r="M961" s="3"/>
       <c r="N961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -16046,7 +16059,7 @@
       <c r="M962" s="3"/>
       <c r="N962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -16062,7 +16075,7 @@
       <c r="M963" s="3"/>
       <c r="N963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -16078,7 +16091,7 @@
       <c r="M964" s="3"/>
       <c r="N964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -16094,7 +16107,7 @@
       <c r="M965" s="3"/>
       <c r="N965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -16110,7 +16123,7 @@
       <c r="M966" s="3"/>
       <c r="N966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -16126,7 +16139,7 @@
       <c r="M967" s="3"/>
       <c r="N967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -16142,7 +16155,7 @@
       <c r="M968" s="3"/>
       <c r="N968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -16158,7 +16171,7 @@
       <c r="M969" s="3"/>
       <c r="N969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -16174,7 +16187,7 @@
       <c r="M970" s="3"/>
       <c r="N970" s="3"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -16190,7 +16203,7 @@
       <c r="M971" s="3"/>
       <c r="N971" s="3"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -16206,7 +16219,7 @@
       <c r="M972" s="3"/>
       <c r="N972" s="3"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -16222,7 +16235,7 @@
       <c r="M973" s="3"/>
       <c r="N973" s="3"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -16238,7 +16251,7 @@
       <c r="M974" s="3"/>
       <c r="N974" s="3"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -16254,7 +16267,7 @@
       <c r="M975" s="3"/>
       <c r="N975" s="3"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -16270,7 +16283,7 @@
       <c r="M976" s="3"/>
       <c r="N976" s="3"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -16286,7 +16299,7 @@
       <c r="M977" s="3"/>
       <c r="N977" s="3"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -16302,7 +16315,7 @@
       <c r="M978" s="3"/>
       <c r="N978" s="3"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -16318,7 +16331,7 @@
       <c r="M979" s="3"/>
       <c r="N979" s="3"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -16334,7 +16347,7 @@
       <c r="M980" s="3"/>
       <c r="N980" s="3"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -16350,7 +16363,7 @@
       <c r="M981" s="3"/>
       <c r="N981" s="3"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -16366,7 +16379,7 @@
       <c r="M982" s="3"/>
       <c r="N982" s="3"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -16382,7 +16395,7 @@
       <c r="M983" s="3"/>
       <c r="N983" s="3"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -16398,7 +16411,7 @@
       <c r="M984" s="3"/>
       <c r="N984" s="3"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -16414,7 +16427,7 @@
       <c r="M985" s="3"/>
       <c r="N985" s="3"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -16430,7 +16443,7 @@
       <c r="M986" s="3"/>
       <c r="N986" s="3"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -16446,7 +16459,7 @@
       <c r="M987" s="3"/>
       <c r="N987" s="3"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -16462,7 +16475,7 @@
       <c r="M988" s="3"/>
       <c r="N988" s="3"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -16478,7 +16491,7 @@
       <c r="M989" s="3"/>
       <c r="N989" s="3"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -16494,7 +16507,7 @@
       <c r="M990" s="3"/>
       <c r="N990" s="3"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -16510,7 +16523,7 @@
       <c r="M991" s="3"/>
       <c r="N991" s="3"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -16526,7 +16539,7 @@
       <c r="M992" s="3"/>
       <c r="N992" s="3"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -16542,7 +16555,7 @@
       <c r="M993" s="3"/>
       <c r="N993" s="3"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -16558,7 +16571,7 @@
       <c r="M994" s="3"/>
       <c r="N994" s="3"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -16574,7 +16587,7 @@
       <c r="M995" s="3"/>
       <c r="N995" s="3"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -16590,7 +16603,7 @@
       <c r="M996" s="3"/>
       <c r="N996" s="3"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -16606,7 +16619,7 @@
       <c r="M997" s="3"/>
       <c r="N997" s="3"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -16622,7 +16635,7 @@
       <c r="M998" s="3"/>
       <c r="N998" s="3"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -16638,7 +16651,7 @@
       <c r="M999" s="3"/>
       <c r="N999" s="3"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -16654,7 +16667,7 @@
       <c r="M1000" s="3"/>
       <c r="N1000" s="3"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1001" s="3"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="3"/>
@@ -16671,6 +16684,7 @@
       <c r="N1001" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>